--- a/CMO_Dashboard_Complete.xlsx
+++ b/CMO_Dashboard_Complete.xlsx
@@ -21,11 +21,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="$#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="$#,##0"/>
+    <numFmt numFmtId="166" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,6 +37,10 @@
       <b val="1"/>
       <color rgb="002F5496"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006100"/>
     </font>
     <font>
       <b val="1"/>
@@ -54,13 +58,23 @@
       <i val="1"/>
       <color rgb="00666666"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="009C0006"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -70,8 +84,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,6 +98,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,43 +134,55 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="1"/>
         <color rgb="009C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,9 +867,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
@@ -849,428 +882,473 @@
           <t>SEGMENT PULSE - Market Allocation Drivers</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Normal Demand Expected</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>COMPETITIVE POSITIONING</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>HIGH SEGMENT ANALYSIS</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>My Market Share</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Est. Demand</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Awareness Gap</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Price Gap</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Allocation Flag</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>My Product</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Competitors</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>LOW SEGMENT ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>My Market Share</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Est. Demand</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Awareness Gap</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Price Gap</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Attractiveness</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Allocation Flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>HIGH vs LOW SEGMENT GAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>High Segment</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Low Segment</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>Price Competitiveness</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>Competitors</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="J28" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>LOW SEGMENT ANALYSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>My Market Share</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Awareness Gap</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Price Gap</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Allocation Flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>HIGH vs LOW SEGMENT GAP</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>High Segment</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>Low Segment</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t>Awareness</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>Price Competitiveness</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>Attractiveness</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>50</v>
+      <c r="I29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1370,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C9">
+  <conditionalFormatting sqref="D5:D9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
         <cfvo type="num" val="0"/>
@@ -1301,7 +1379,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17">
+  <conditionalFormatting sqref="D13:D17">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
         <cfvo type="num" val="0"/>
@@ -1310,14 +1388,14 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
+  <conditionalFormatting sqref="E5:E9">
     <cfRule type="expression" priority="5" dxfId="0">
-      <formula>D5&gt;0.1</formula>
+      <formula>E5&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D17">
+  <conditionalFormatting sqref="E13:E17">
     <cfRule type="expression" priority="5" dxfId="0">
-      <formula>D5&gt;0.1</formula>
+      <formula>E5&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1331,7 +1409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +1420,7 @@
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1352,218 +1431,283 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Note: Innovations increase Attractiveness. Required for High Segment Allocation.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Feature Name</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Decision (1=Yes)</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Est. Cost ($)</t>
         </is>
       </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Calculated Est. Cost</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="n">
+      <c r="B5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D5" s="14">
+        <f>C5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="n">
+      <c r="B6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D6" s="14">
+        <f>C6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="B7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D7" s="14">
+        <f>C7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="n">
+      <c r="B8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D8" s="14">
+        <f>C8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="B9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D9" s="14">
+        <f>C9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="n">
+      <c r="B10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D10" s="14">
+        <f>C10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="n">
+      <c r="B11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D11" s="14">
+        <f>C11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="n">
+      <c r="B12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D12" s="14">
+        <f>C12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
+      <c r="B13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D13" s="14">
+        <f>C13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="n">
+      <c r="B14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D14" s="14">
+        <f>C14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="n">
+      <c r="B15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D15" s="14">
+        <f>C15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11" t="n">
+      <c r="B16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D16" s="14">
+        <f>C16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11" t="n">
+      <c r="B17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D17" s="14">
+        <f>C17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11" t="n">
+      <c r="B18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="n">
         <v>10000</v>
       </c>
+      <c r="D18" s="14">
+        <f>C18</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>TOTAL INNOVATION COST</t>
         </is>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="16">
+        <f>SUMPRODUCT(B5:B18,C5:C18)</f>
+        <v/>
+      </c>
+      <c r="D20">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1579,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,370 +1732,402 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>UNIT ECONOMICS CHEAT SHEET</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="inlineStr">
+        <is>
+          <t>TV Cost/Spot: $3,787</t>
+        </is>
+      </c>
+      <c r="B2" s="17" t="inlineStr">
+        <is>
+          <t>Radio Cost/Spot: $255</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t>Hiring Fee: $1,100</t>
+        </is>
+      </c>
+      <c r="D2" s="17" t="inlineStr">
+        <is>
+          <t>Salary/Person: $1,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>HOW TO USE: Adjust Yellow cells. Check Profit Projection. Go to UPLOAD_READY tabs to copy decisions.</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>SECTION A: GLOBAL ALLOCATIONS</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>TV Budget ($)</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Primary Driver: High Segment Awareness</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>TV Spots (Qty)</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>Cost: =B9*3787.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Brand Focus (0-100)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="B10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>0=Awareness focus, 100=Attributes focus</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>SECTION B: ZONAL ALLOCATIONS</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="19" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B15" s="19" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D15" s="19" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E11" s="15" t="inlineStr">
-        <is>
-          <t>Radio Budget</t>
-        </is>
-      </c>
-      <c r="F11" s="15" t="inlineStr">
-        <is>
-          <t>Salespeople</t>
-        </is>
-      </c>
-      <c r="G11" s="15" t="inlineStr">
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Radio Spots (Qty)</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Headcount</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H11" s="15" t="inlineStr">
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>Avg Comp Price</t>
+        </is>
+      </c>
+      <c r="I15" s="19" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="I11" s="15" t="inlineStr">
+      <c r="J15" s="19" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="J11" s="15" t="inlineStr">
+      <c r="K15" s="19" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="K11" s="15" t="inlineStr">
+      <c r="L15" s="19" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D12" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I12" s="19">
-        <f>D12*G12</f>
-        <v/>
-      </c>
-      <c r="J12" s="19">
-        <f>($B$5/5)+E12+(F12*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="20">
-        <f>I12-J12-(D12*40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="B16" s="20" t="n">
+        <v>8727</v>
+      </c>
+      <c r="C16" s="21" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18" t="inlineStr"/>
+      <c r="J16" s="14">
+        <f>D16*G16</f>
+        <v/>
+      </c>
+      <c r="K16" s="14">
+        <f>($B$9*3787.0/5) + (E16*255.0) + (F16*1500) + (MAX(0, F16-5)*1100) + (INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="L16" s="23">
+        <f>J16-K16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="B13" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D13" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I13" s="19">
-        <f>D13*G13</f>
-        <v/>
-      </c>
-      <c r="J13" s="19">
-        <f>($B$5/5)+E13+(F13*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="20">
-        <f>I13-J13-(D13*40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="B17" s="20" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18" t="inlineStr"/>
+      <c r="J17" s="14">
+        <f>D17*G17</f>
+        <v/>
+      </c>
+      <c r="K17" s="14">
+        <f>($B$9*3787.0/5) + (E17*255.0) + (F17*1500) + (MAX(0, F17-5)*1100) + (INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="L17" s="23">
+        <f>J17-K17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D14" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I14" s="19">
-        <f>D14*G14</f>
-        <v/>
-      </c>
-      <c r="J14" s="19">
-        <f>($B$5/5)+E14+(F14*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="20">
-        <f>I14-J14-(D14*40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B18" s="20" t="n">
+        <v>8404</v>
+      </c>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18" t="inlineStr"/>
+      <c r="J18" s="14">
+        <f>D18*G18</f>
+        <v/>
+      </c>
+      <c r="K18" s="14">
+        <f>($B$9*3787.0/5) + (E18*255.0) + (F18*1500) + (MAX(0, F18-5)*1100) + (INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="L18" s="23">
+        <f>J18-K18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D15" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I15" s="19">
-        <f>D15*G15</f>
-        <v/>
-      </c>
-      <c r="J15" s="19">
-        <f>($B$5/5)+E15+(F15*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="20">
-        <f>I15-J15-(D15*40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="B19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18" t="inlineStr"/>
+      <c r="J19" s="14">
+        <f>D19*G19</f>
+        <v/>
+      </c>
+      <c r="K19" s="14">
+        <f>($B$9*3787.0/5) + (E19*255.0) + (F19*1500) + (MAX(0, F19-5)*1100) + (INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="L19" s="23">
+        <f>J19-K19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D16" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H16" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I16" s="19">
-        <f>D16*G16</f>
-        <v/>
-      </c>
-      <c r="J16" s="19">
-        <f>($B$5/5)+E16+(F16*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="20">
-        <f>I16-J16-(D16*40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D17" s="21">
-        <f>SUM(D12:D16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="22">
-        <f>SUM(I12:I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="22">
-        <f>SUM(J12:J16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="23">
-        <f>SUM(K12:K16)</f>
+      <c r="B20" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18" t="inlineStr"/>
+      <c r="J20" s="14">
+        <f>D20*G20</f>
+        <v/>
+      </c>
+      <c r="K20" s="14">
+        <f>($B$9*3787.0/5) + (E20*255.0) + (F20*1500) + (MAX(0, F20-5)*1100) + (INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="L20" s="23">
+        <f>J20-K20</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" priority="1" dxfId="1">
+      <formula>G16&gt;(H16*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>G17&gt;(H17*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="3" dxfId="1">
+      <formula>G18&gt;(H18*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>G19&gt;(H19*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" priority="5" dxfId="1">
+      <formula>G20&gt;(H20*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1978,56 +2154,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Marketing upload</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Marketing Campaigns</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Pricing Strategy</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>Channels</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Brand Focus</t>
         </is>
@@ -2074,332 +2250,332 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="D6" s="4">
-        <f>STRATEGY_COCKPIT!B5</f>
-        <v/>
-      </c>
-      <c r="E6" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="D6" s="5">
+        <f>STRATEGY_COCKPIT!C9</f>
+        <v/>
+      </c>
+      <c r="E6" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="H6" s="4">
-        <f>STRATEGY_COCKPIT!D12</f>
-        <v/>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="H6" s="5">
+        <f>STRATEGY_COCKPIT!D16</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L6" s="4">
-        <f>STRATEGY_COCKPIT!G12</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="L6" s="5">
+        <f>STRATEGY_COCKPIT!G16</f>
+        <v/>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="O6" s="4">
-        <f>STRATEGY_COCKPIT!H12</f>
-        <v/>
-      </c>
-      <c r="P6" s="4">
-        <f>STRATEGY_COCKPIT!F12</f>
+      <c r="O6" s="5">
+        <f>STRATEGY_COCKPIT!I16</f>
+        <v/>
+      </c>
+      <c r="P6" s="5">
+        <f>STRATEGY_COCKPIT!F16</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D7" s="4">
-        <f>STRATEGY_COCKPIT!E12</f>
-        <v/>
-      </c>
-      <c r="E7" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="D7" s="5">
+        <f>STRATEGY_COCKPIT!E16*STRATEGY_COCKPIT!$B$2</f>
+        <v/>
+      </c>
+      <c r="E7" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="H7" s="4">
-        <f>STRATEGY_COCKPIT!D13</f>
-        <v/>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="H7" s="5">
+        <f>STRATEGY_COCKPIT!D17</f>
+        <v/>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L7" s="4">
-        <f>STRATEGY_COCKPIT!G13</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="L7" s="5">
+        <f>STRATEGY_COCKPIT!G17</f>
+        <v/>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="O7" s="4">
-        <f>STRATEGY_COCKPIT!H13</f>
-        <v/>
-      </c>
-      <c r="P7" s="4">
-        <f>STRATEGY_COCKPIT!F13</f>
+      <c r="O7" s="5">
+        <f>STRATEGY_COCKPIT!I17</f>
+        <v/>
+      </c>
+      <c r="P7" s="5">
+        <f>STRATEGY_COCKPIT!F17</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D8" s="4">
-        <f>STRATEGY_COCKPIT!E13</f>
-        <v/>
-      </c>
-      <c r="E8" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="D8" s="5">
+        <f>STRATEGY_COCKPIT!E17*STRATEGY_COCKPIT!$B$2</f>
+        <v/>
+      </c>
+      <c r="E8" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="H8" s="4">
-        <f>STRATEGY_COCKPIT!D14</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="H8" s="5">
+        <f>STRATEGY_COCKPIT!D18</f>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L8" s="4">
-        <f>STRATEGY_COCKPIT!G14</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="L8" s="5">
+        <f>STRATEGY_COCKPIT!G18</f>
+        <v/>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="O8" s="4">
-        <f>STRATEGY_COCKPIT!H14</f>
-        <v/>
-      </c>
-      <c r="P8" s="4">
-        <f>STRATEGY_COCKPIT!F14</f>
+      <c r="O8" s="5">
+        <f>STRATEGY_COCKPIT!I18</f>
+        <v/>
+      </c>
+      <c r="P8" s="5">
+        <f>STRATEGY_COCKPIT!F18</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D9" s="4">
-        <f>STRATEGY_COCKPIT!E14</f>
-        <v/>
-      </c>
-      <c r="E9" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="D9" s="5">
+        <f>STRATEGY_COCKPIT!E18*STRATEGY_COCKPIT!$B$2</f>
+        <v/>
+      </c>
+      <c r="E9" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="H9" s="4">
-        <f>STRATEGY_COCKPIT!D15</f>
-        <v/>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="H9" s="5">
+        <f>STRATEGY_COCKPIT!D19</f>
+        <v/>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L9" s="4">
-        <f>STRATEGY_COCKPIT!G15</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="L9" s="5">
+        <f>STRATEGY_COCKPIT!G19</f>
+        <v/>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="O9" s="4">
-        <f>STRATEGY_COCKPIT!H15</f>
-        <v/>
-      </c>
-      <c r="P9" s="4">
-        <f>STRATEGY_COCKPIT!F15</f>
+      <c r="O9" s="5">
+        <f>STRATEGY_COCKPIT!I19</f>
+        <v/>
+      </c>
+      <c r="P9" s="5">
+        <f>STRATEGY_COCKPIT!F19</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D10" s="4">
-        <f>STRATEGY_COCKPIT!E15</f>
-        <v/>
-      </c>
-      <c r="E10" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="D10" s="5">
+        <f>STRATEGY_COCKPIT!E19*STRATEGY_COCKPIT!$B$2</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="H10" s="4">
-        <f>STRATEGY_COCKPIT!D16</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="H10" s="5">
+        <f>STRATEGY_COCKPIT!D20</f>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L10" s="4">
-        <f>STRATEGY_COCKPIT!G16</f>
-        <v/>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="L10" s="5">
+        <f>STRATEGY_COCKPIT!G20</f>
+        <v/>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="O10" s="4">
-        <f>STRATEGY_COCKPIT!H16</f>
-        <v/>
-      </c>
-      <c r="P10" s="4">
-        <f>STRATEGY_COCKPIT!F16</f>
+      <c r="O10" s="5">
+        <f>STRATEGY_COCKPIT!I20</f>
+        <v/>
+      </c>
+      <c r="P10" s="5">
+        <f>STRATEGY_COCKPIT!F20</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D11" s="4">
-        <f>STRATEGY_COCKPIT!E16</f>
-        <v/>
-      </c>
-      <c r="E11" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
+      <c r="D11" s="5">
+        <f>STRATEGY_COCKPIT!E20*STRATEGY_COCKPIT!$B$2</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
         <v/>
       </c>
     </row>
@@ -2435,7 +2611,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Innovation upload</t>
         </is>
@@ -2459,225 +2635,225 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f>INNOVATION_LAB!B5</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f>INNOVATION_LAB!B6</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f>INNOVATION_LAB!B7</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <f>INNOVATION_LAB!B8</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <f>INNOVATION_LAB!B9</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <f>INNOVATION_LAB!B10</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <f>INNOVATION_LAB!B11</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f>INNOVATION_LAB!B12</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>INNOVATION_LAB!B13</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <f>INNOVATION_LAB!B14</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f>INNOVATION_LAB!B15</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <f>INNOVATION_LAB!B16</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <f>INNOVATION_LAB!B17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <f>INNOVATION_LAB!B18</f>
         <v/>
       </c>
